--- a/output/fit_clients/fit_round_377.xlsx
+++ b/output/fit_clients/fit_round_377.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2151231802.308532</v>
+        <v>2159211691.952104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07175503081598687</v>
+        <v>0.09365207358267325</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04079464614740518</v>
+        <v>0.03551980821142852</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1075615917.114666</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1812355224.605704</v>
+        <v>2135271580.106383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1285611809435112</v>
+        <v>0.1184881772371593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04956425188439881</v>
+        <v>0.0442814057059091</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>906177623.3195466</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4021664586.715917</v>
+        <v>5148374397.757062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1091920427932535</v>
+        <v>0.1312692612214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02438526214238347</v>
+        <v>0.0272133651497969</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>136</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2010832309.084255</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4173318920.601296</v>
+        <v>2571761195.622149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08928391180560689</v>
+        <v>0.07559464899632999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04218656057848017</v>
+        <v>0.04850801422868345</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>140</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2086659452.513598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2610238702.711555</v>
+        <v>2060683552.416051</v>
       </c>
       <c r="F6" t="n">
-        <v>0.131653021333966</v>
+        <v>0.1124141220816633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04902163068619189</v>
+        <v>0.05265516701328887</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1305119314.919697</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2994799550.755769</v>
+        <v>1949717317.766534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08007051767105332</v>
+        <v>0.06735214221650765</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03505059120085739</v>
+        <v>0.04556427304210318</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1497399740.754124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3881302820.774645</v>
+        <v>2451663169.947369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.140085843354313</v>
+        <v>0.2145572247162265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02045506819287531</v>
+        <v>0.02166734988304491</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>120</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1940651558.005033</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1765739505.415272</v>
+        <v>2304129145.674129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1491296302007453</v>
+        <v>0.1745001864541793</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02889253512861645</v>
+        <v>0.02359824639361313</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>882869811.8308322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4382903421.935602</v>
+        <v>5247505656.521642</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380543508892364</v>
+        <v>0.1671029676535341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05144426266822358</v>
+        <v>0.05417782064243072</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>158</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2191451762.549366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3186068406.222367</v>
+        <v>3516047263.293052</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1861080987212174</v>
+        <v>0.1766898787379162</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0466970255860846</v>
+        <v>0.04043631689432051</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>155</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1593034159.013144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2926621867.657261</v>
+        <v>2462304597.662838</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1743051486237686</v>
+        <v>0.1707530620488337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0353693401155277</v>
+        <v>0.04198592185955858</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>128</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1463310945.135023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3376449785.807949</v>
+        <v>3760263572.579291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07725426240042405</v>
+        <v>0.101873605520149</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02577689730995739</v>
+        <v>0.02330938965354386</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>126</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1688224979.512603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3398443100.701303</v>
+        <v>3318243330.246157</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1568009478932132</v>
+        <v>0.1529902088494862</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02800477932535442</v>
+        <v>0.04428951055913927</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1699221555.949749</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1339172700.006991</v>
+        <v>1333441000.67303</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07178377556258808</v>
+        <v>0.08920283554124792</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03969774006666161</v>
+        <v>0.04870468450030289</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>669586399.0535666</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2326410603.833458</v>
+        <v>1765576138.62142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09315284848906964</v>
+        <v>0.07432372417971483</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03747480704747647</v>
+        <v>0.04726280406206931</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1163205348.255589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3820879217.824886</v>
+        <v>5332397364.876266</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1345324595020053</v>
+        <v>0.1509563494078014</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04402123955894403</v>
+        <v>0.04139776916631276</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1910439652.368129</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2886640930.797674</v>
+        <v>3550023514.200778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1251991389323823</v>
+        <v>0.1352625009940111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02907871078191362</v>
+        <v>0.02707700619650823</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>123</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1443320503.88093</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1352472974.965429</v>
+        <v>887535239.2922013</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1665575057609197</v>
+        <v>0.1853824045392809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01766150754756029</v>
+        <v>0.02698271284281712</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>676236602.558447</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2151549541.235761</v>
+        <v>2381846407.600637</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1004831000495975</v>
+        <v>0.1194572521556739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02380906014323737</v>
+        <v>0.0223219479674773</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1075774780.833303</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1966238255.19162</v>
+        <v>1694937969.003264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07495590844576985</v>
+        <v>0.0982256758694755</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03583552283738425</v>
+        <v>0.03558780933631805</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>983119166.7882557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3089950319.67305</v>
+        <v>3073753346.511977</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031012480115004</v>
+        <v>0.1267963804517588</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05233763579430543</v>
+        <v>0.04972041210304776</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1544975215.993187</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1338957943.358354</v>
+        <v>1412296233.292597</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1666625100474852</v>
+        <v>0.1685152641645818</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0372542332465662</v>
+        <v>0.05440465528640988</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>669478984.7662753</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3680207702.77591</v>
+        <v>2596077241.911802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.143480297395618</v>
+        <v>0.1498642276378481</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03468821935828272</v>
+        <v>0.03498957778729912</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>110</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1840103840.902506</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1413850471.939419</v>
+        <v>1198017753.92503</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1141779673513253</v>
+        <v>0.09294618155886014</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02197623013361255</v>
+        <v>0.02379462930542836</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>706925204.7528757</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1010580620.389593</v>
+        <v>1378616328.179283</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1238381701401514</v>
+        <v>0.08314709233581627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03629573595057324</v>
+        <v>0.02989345821116459</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>505290284.8881171</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4286746025.827324</v>
+        <v>2968649530.788986</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1135764638625088</v>
+        <v>0.1023149561937564</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02331198915156351</v>
+        <v>0.01705721295938072</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2143373008.812823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2641598354.530776</v>
+        <v>2833138222.17359</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1062607528155627</v>
+        <v>0.1190934517003635</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03944152392317406</v>
+        <v>0.03284893331267914</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>121</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1320799157.391221</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5582929529.629944</v>
+        <v>4259983043.592628</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09504554271908325</v>
+        <v>0.09351161946923847</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04151648346090688</v>
+        <v>0.04355776528734206</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>166</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2791464672.000847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1717919941.887568</v>
+        <v>1871512154.428924</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09108995289384325</v>
+        <v>0.08707748773482736</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02752302925361604</v>
+        <v>0.03501237910574468</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>858959976.2882404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1241362796.253622</v>
+        <v>913199858.411276</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09881109961164607</v>
+        <v>0.101578944784946</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04665837891563366</v>
+        <v>0.03836518805857919</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>620681339.8707222</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1842459204.994515</v>
+        <v>1338760792.579612</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08875580291357413</v>
+        <v>0.08019658581151887</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02388743958267943</v>
+        <v>0.03826897503335582</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>921229741.7870615</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2453242166.389813</v>
+        <v>2558541611.562758</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1759673460476249</v>
+        <v>0.1532900954041513</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03679140624391326</v>
+        <v>0.06055803178807676</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1226621125.399309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1487956417.749081</v>
+        <v>1200347076.58888</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08175442312547562</v>
+        <v>0.1089582849249634</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02215693345494453</v>
+        <v>0.01712711827894392</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>743978166.7651553</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>995745465.7870154</v>
+        <v>1183338043.461569</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09620646686785307</v>
+        <v>0.09783211759208972</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03099680237085212</v>
+        <v>0.03565249213869238</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>497872752.4050979</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2919222659.522192</v>
+        <v>3108543383.235767</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1165663189157973</v>
+        <v>0.1812269984507848</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02074474273878519</v>
+        <v>0.01816552484422421</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1459611318.177795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2761711736.363512</v>
+        <v>2534243223.857556</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004312552147382</v>
+        <v>0.08883230189237964</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04200937595320895</v>
+        <v>0.03542029904238635</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1380856000.28569</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2143582672.716927</v>
+        <v>1387382351.341404</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07455988620806608</v>
+        <v>0.08854642469350002</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03739416544871282</v>
+        <v>0.03898351261778868</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1071791294.712153</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1563188321.389248</v>
+        <v>1700554554.091435</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1513761693062979</v>
+        <v>0.1176019107813039</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0275596182500182</v>
+        <v>0.03040186726642776</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>781594221.5817389</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1197493223.984828</v>
+        <v>1745501182.751871</v>
       </c>
       <c r="F40" t="n">
-        <v>0.121192053064886</v>
+        <v>0.109401589625847</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05158148668713497</v>
+        <v>0.05847442784841422</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>598746653.9301039</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2588722719.924686</v>
+        <v>2663416316.985512</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1554292268948565</v>
+        <v>0.1020186162462643</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03975237351112584</v>
+        <v>0.03166425986834323</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1294361376.532871</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3218431138.556106</v>
+        <v>2814316125.469776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1274182465173651</v>
+        <v>0.102030474520541</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04165862688351323</v>
+        <v>0.04563376067132118</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1609215544.76924</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2091561683.769962</v>
+        <v>2600920266.805794</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1430120337951255</v>
+        <v>0.134929300016591</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02236727951556343</v>
+        <v>0.02117351116400959</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1045780931.634038</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1985306979.787546</v>
+        <v>1924154736.520509</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09967094596324742</v>
+        <v>0.08935631197921695</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03451812779154304</v>
+        <v>0.03433678209387273</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>992653593.3181126</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1562361693.327127</v>
+        <v>2442812322.155899</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1242926738359941</v>
+        <v>0.1855858329656299</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0395253968426212</v>
+        <v>0.04135002666340223</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>781180793.437786</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4002578758.844854</v>
+        <v>3473321871.622776</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1172949116814266</v>
+        <v>0.1256495644409415</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05058533275679748</v>
+        <v>0.05171050948588918</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>134</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2001289349.125147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4906261974.846912</v>
+        <v>4271164119.653763</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2036019712222454</v>
+        <v>0.1866724645365355</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04062420039820419</v>
+        <v>0.05490628900989288</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>101</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2453131037.962523</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2854748161.373712</v>
+        <v>4039059239.484035</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0953917893491585</v>
+        <v>0.0714053996573967</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03201380362867565</v>
+        <v>0.03021783241065373</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1427374181.631854</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1525148681.776745</v>
+        <v>1823913286.576336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1261693945113802</v>
+        <v>0.1340269127037114</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04319343216193763</v>
+        <v>0.04319386393493531</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>762574369.0238796</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4219800985.429204</v>
+        <v>4051544742.707805</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1180584812612457</v>
+        <v>0.1684499006846621</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03462338093508815</v>
+        <v>0.04155997531440121</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>129</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2109900465.769425</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1460584862.370787</v>
+        <v>942514877.35523</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1345372744918012</v>
+        <v>0.1828228999936381</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05283718562558529</v>
+        <v>0.05403172256224595</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>730292440.5243919</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4837286185.179105</v>
+        <v>3891793569.758594</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09529165767036619</v>
+        <v>0.1119076968985144</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05044991660171552</v>
+        <v>0.05780893847411544</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>155</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2418643099.807422</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3233973392.238963</v>
+        <v>2303047187.984977</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1389222537700455</v>
+        <v>0.1558576659060247</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03291244899573856</v>
+        <v>0.02472225097022611</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1616986712.373965</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3826314108.959571</v>
+        <v>4725725696.012262</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1265219771746231</v>
+        <v>0.1615599294864087</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04097898599207961</v>
+        <v>0.05305901939190234</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1913157104.923842</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3284290233.720938</v>
+        <v>3363268221.354107</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1653943421920208</v>
+        <v>0.1565033954439935</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02240445051043193</v>
+        <v>0.02427509902010372</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>111</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1642145060.196553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1232396116.900273</v>
+        <v>1688660724.9464</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1467185008890525</v>
+        <v>0.1382844487955521</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04663692609187711</v>
+        <v>0.04370217055587035</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>616198140.3671795</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3159823892.606702</v>
+        <v>3754978821.427071</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1227327506217584</v>
+        <v>0.1187107652252668</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02458488798438486</v>
+        <v>0.0249539081244472</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>119</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1579911964.137571</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1663580547.181607</v>
+        <v>1484097137.028651</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1563161561637932</v>
+        <v>0.1895082186795677</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02471264063377841</v>
+        <v>0.03302394001840665</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>831790289.8029201</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4245201714.839227</v>
+        <v>4526585415.136397</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1136701982953598</v>
+        <v>0.1224395302507019</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04076348228736255</v>
+        <v>0.03112225343951711</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>105</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2122600821.536467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2673924753.960515</v>
+        <v>3615698494.666796</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1854771207456696</v>
+        <v>0.2010402685068173</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02973779905632953</v>
+        <v>0.02322941076184836</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1336962413.137946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2945086582.220459</v>
+        <v>2672321729.530672</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158905980677079</v>
+        <v>0.1096604736537311</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02327715853775892</v>
+        <v>0.03201380807298899</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>129</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1472543276.769258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1433922271.3738</v>
+        <v>1478371217.836647</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1276207785971987</v>
+        <v>0.1855847268385277</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03179194425974405</v>
+        <v>0.04994067236573142</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>716961108.8409586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4823851368.484249</v>
+        <v>3374916285.476026</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08693757318086835</v>
+        <v>0.1057228546187655</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03000184536936409</v>
+        <v>0.03693145055968404</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2411925709.858108</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3861488857.921675</v>
+        <v>3568371188.961304</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1354770859061805</v>
+        <v>0.1509386640405339</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02143175110326019</v>
+        <v>0.02862910485762548</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>118</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1930744455.089112</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5043743712.452917</v>
+        <v>3876650600.105859</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1647959622231581</v>
+        <v>0.1640173592895307</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03047013204329529</v>
+        <v>0.02048774729034318</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>135</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2521871812.543191</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4728128282.474832</v>
+        <v>3609315776.187</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587119662194128</v>
+        <v>0.1463591126665378</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03782007595589715</v>
+        <v>0.0453626791624399</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>110</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2364064153.824718</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2658119718.606144</v>
+        <v>3319202805.78379</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07925297292704665</v>
+        <v>0.0960815612449331</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03633387465287472</v>
+        <v>0.04115829937555929</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>121</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1329059906.556974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4508994462.574411</v>
+        <v>5959366646.437097</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1155825638575902</v>
+        <v>0.1459942902478271</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03363352528321219</v>
+        <v>0.0515237423814705</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2254497257.929986</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1559832454.027309</v>
+        <v>1716773584.705538</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1576392089105305</v>
+        <v>0.1375284770202975</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04032143917086348</v>
+        <v>0.03962720326965082</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>779916175.0926019</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3321653132.374802</v>
+        <v>2871021773.725721</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0775898044483942</v>
+        <v>0.08211257761899859</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0306799296175308</v>
+        <v>0.0419843377896536</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>107</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1660826564.08167</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3951958399.855581</v>
+        <v>4361942705.295916</v>
       </c>
       <c r="F71" t="n">
-        <v>0.12206380657228</v>
+        <v>0.1816921262565847</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03366744240350277</v>
+        <v>0.02787150315318385</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>137</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1975979227.44054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1968175686.372012</v>
+        <v>1548541819.416291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08836188427005209</v>
+        <v>0.09141161407618595</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03570144592367782</v>
+        <v>0.04776454228628434</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>984087794.6851096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3013837578.39431</v>
+        <v>3309404260.754755</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09007788488431342</v>
+        <v>0.1045439095566634</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03221885920051454</v>
+        <v>0.05265791933313877</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>142</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1506918783.927706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3279317590.05207</v>
+        <v>3957915435.242961</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1821526024491145</v>
+        <v>0.1247698345635155</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02877836386981225</v>
+        <v>0.03031237096977444</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>128</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1639658836.286543</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1998168580.550846</v>
+        <v>2113263049.865894</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1526380087774212</v>
+        <v>0.152185246816333</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02759113868941707</v>
+        <v>0.03245619557934642</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>999084254.6125766</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4094215533.261792</v>
+        <v>3859134192.975716</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08832615909481456</v>
+        <v>0.08863250606986363</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03239359497612729</v>
+        <v>0.02660140502824683</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2047107755.282795</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1941808753.66145</v>
+        <v>1426784184.224205</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1226352428477954</v>
+        <v>0.1696987955521593</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01912914323812067</v>
+        <v>0.02646217127446885</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>970904429.7396661</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4211171806.813496</v>
+        <v>3728721550.986757</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1076484609487092</v>
+        <v>0.1201032187016664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05142277863091822</v>
+        <v>0.05645453084940522</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>130</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2105585854.047702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1693534205.062863</v>
+        <v>1496241755.70758</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1371398846370959</v>
+        <v>0.146582276223433</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03565659153638566</v>
+        <v>0.02451874243973001</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>846767170.6011763</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4543311629.258123</v>
+        <v>5503490689.835539</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08643545682773492</v>
+        <v>0.07713361039553594</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03486219971192824</v>
+        <v>0.02703636671972956</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>83</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2271655841.14855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4006954074.777969</v>
+        <v>4103790386.914242</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1044277739891013</v>
+        <v>0.1002942325306914</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02553776029072419</v>
+        <v>0.03178427453911509</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2003477000.852356</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5569458150.858757</v>
+        <v>3917778951.944762</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2152659655869268</v>
+        <v>0.1455719575563683</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02539716997637626</v>
+        <v>0.01893973517856509</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>132</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2784729027.612637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1832939528.411129</v>
+        <v>1833336612.666015</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1285443584071652</v>
+        <v>0.1487050681885177</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02819394444828419</v>
+        <v>0.03139561252365624</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>916469728.7546451</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2266601187.63467</v>
+        <v>1573189472.292126</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09076246590847377</v>
+        <v>0.07704287153345725</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04178362674388833</v>
+        <v>0.03537981249462051</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1133300559.800114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2879571939.843266</v>
+        <v>2991370658.299475</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1251866748415334</v>
+        <v>0.1154007445355785</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04176644312411262</v>
+        <v>0.04214175430181603</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>141</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1439786016.777794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2810544847.356138</v>
+        <v>2633444239.450644</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1534528010692547</v>
+        <v>0.1676347782925352</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02753587959102767</v>
+        <v>0.02527150587314683</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1405272564.027045</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>934722641.0683986</v>
+        <v>996682591.1874241</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1160300872593993</v>
+        <v>0.1753745697066444</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0368056653053875</v>
+        <v>0.04351779343379872</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>467361308.1465344</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2619890182.400723</v>
+        <v>3555710440.878969</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1547624656824655</v>
+        <v>0.1384361611602764</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02873615519982138</v>
+        <v>0.03665706497139355</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>149</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1309945084.105667</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3197634158.828707</v>
+        <v>3201535224.564442</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1424396753670547</v>
+        <v>0.1319998102491213</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03833317259898095</v>
+        <v>0.02550980228130464</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>127</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1598817103.062622</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2170209433.463642</v>
+        <v>1501602940.208943</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09223147219813355</v>
+        <v>0.1106001392165699</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04138354281699817</v>
+        <v>0.03427349618197745</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1085104818.140696</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1877718520.446411</v>
+        <v>1267307570.803944</v>
       </c>
       <c r="F91" t="n">
-        <v>0.130685744554667</v>
+        <v>0.1409441411660869</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05536764931651452</v>
+        <v>0.04343416087991905</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>938859248.8044963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2667055972.422829</v>
+        <v>2354201993.821811</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1048164173156278</v>
+        <v>0.08553641614293502</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04702301940353593</v>
+        <v>0.02876846414128648</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>107</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1333527982.803892</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3672546044.422115</v>
+        <v>3447461765.373206</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08611934022897261</v>
+        <v>0.136246350083516</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04479380785965833</v>
+        <v>0.03695258963193617</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1836273044.014174</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2473144347.591405</v>
+        <v>1888284254.668528</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1531221537188398</v>
+        <v>0.1507159492744862</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02726508532620887</v>
+        <v>0.0401002478952298</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1236572233.715796</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2072291324.429327</v>
+        <v>2950753422.391111</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1151254182095456</v>
+        <v>0.1361794296038997</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04683736236332714</v>
+        <v>0.03512295547420172</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1036145729.412202</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1773129673.934102</v>
+        <v>2045330052.412589</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1115734438541792</v>
+        <v>0.09141667297221234</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03153760430742295</v>
+        <v>0.03781395397362505</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>886564848.1900905</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5073345251.764303</v>
+        <v>3305923743.43013</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1200752306245596</v>
+        <v>0.1760501269909207</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02813456524321944</v>
+        <v>0.01769312368170715</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2536672768.587381</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3284667818.883902</v>
+        <v>2761309086.034592</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0886465814427994</v>
+        <v>0.09294463495058519</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02381452578634153</v>
+        <v>0.03286117875925088</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1642333913.484981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3279026656.587945</v>
+        <v>2074981152.247071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1292056207735721</v>
+        <v>0.1147366732229924</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03232671624317748</v>
+        <v>0.02639165378482538</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1639513334.478351</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4098725915.80423</v>
+        <v>3641852985.598433</v>
       </c>
       <c r="F100" t="n">
-        <v>0.133797959517735</v>
+        <v>0.1715997964201416</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0189892405666664</v>
+        <v>0.02352969494172268</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2049363036.468836</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3475810462.975495</v>
+        <v>3178930054.473299</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1459939122710579</v>
+        <v>0.1940710524421912</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04246096374284745</v>
+        <v>0.03714501231719466</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>153</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1737905383.421981</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_377.xlsx
+++ b/output/fit_clients/fit_round_377.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2159211691.952104</v>
+        <v>1759931950.102239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09365207358267325</v>
+        <v>0.09101873305113915</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03551980821142852</v>
+        <v>0.03601970708038404</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2135271580.106383</v>
+        <v>2261478546.252482</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1184881772371593</v>
+        <v>0.1158036993399506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0442814057059091</v>
+        <v>0.04546567657621399</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5148374397.757062</v>
+        <v>4461008358.706422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1312692612214</v>
+        <v>0.1314411982635621</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0272133651497969</v>
+        <v>0.03112815886399872</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2571761195.622149</v>
+        <v>3026601906.462094</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07559464899632999</v>
+        <v>0.08325344626089541</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04850801422868345</v>
+        <v>0.03230038083604203</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2060683552.416051</v>
+        <v>2030903264.712255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1124141220816633</v>
+        <v>0.1395906984922044</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05265516701328887</v>
+        <v>0.03719993614256744</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1949717317.766534</v>
+        <v>2225650910.189156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06735214221650765</v>
+        <v>0.06366163120838195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04556427304210318</v>
+        <v>0.04286468040190623</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2451663169.947369</v>
+        <v>2886803122.199675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2145572247162265</v>
+        <v>0.209476684741609</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02166734988304491</v>
+        <v>0.03264531808581082</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2304129145.674129</v>
+        <v>1981914211.893561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1745001864541793</v>
+        <v>0.1251914300824422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02359824639361313</v>
+        <v>0.03657206233629891</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5247505656.521642</v>
+        <v>4386953224.687017</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1671029676535341</v>
+        <v>0.2112545278992275</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05417782064243072</v>
+        <v>0.03900155157516377</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3516047263.293052</v>
+        <v>3269553288.352816</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1766898787379162</v>
+        <v>0.1259960396472964</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04043631689432051</v>
+        <v>0.04537033545096756</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2462304597.662838</v>
+        <v>2775477747.551859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1707530620488337</v>
+        <v>0.1972360346397213</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04198592185955858</v>
+        <v>0.04867326068847939</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3760263572.579291</v>
+        <v>3928808295.293252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101873605520149</v>
+        <v>0.09967966752781429</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02330938965354386</v>
+        <v>0.02168444407157073</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3318243330.246157</v>
+        <v>3302242154.12749</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1529902088494862</v>
+        <v>0.1316293489969612</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04428951055913927</v>
+        <v>0.04207702684643505</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1333441000.67303</v>
+        <v>1351520971.914219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08920283554124792</v>
+        <v>0.09432832176544335</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04870468450030289</v>
+        <v>0.04120210926962799</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1765576138.62142</v>
+        <v>2699245935.597616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07432372417971483</v>
+        <v>0.1124821935852067</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04726280406206931</v>
+        <v>0.03905527388193326</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5332397364.876266</v>
+        <v>5178404018.053908</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1509563494078014</v>
+        <v>0.1191755133943428</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04139776916631276</v>
+        <v>0.03411872898129284</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3550023514.200778</v>
+        <v>2888590373.640826</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1352625009940111</v>
+        <v>0.1411446581090522</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02707700619650823</v>
+        <v>0.02551351612036806</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>887535239.2922013</v>
+        <v>1337483965.796605</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1853824045392809</v>
+        <v>0.1435829141756724</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02698271284281712</v>
+        <v>0.02221619401080571</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2381846407.600637</v>
+        <v>1867373956.208528</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1194572521556739</v>
+        <v>0.1594474992886912</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0223219479674773</v>
+        <v>0.01971145105399057</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1694937969.003264</v>
+        <v>2075109954.645994</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0982256758694755</v>
+        <v>0.09360797940344687</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03558780933631805</v>
+        <v>0.04432465044643625</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3073753346.511977</v>
+        <v>3002124036.647894</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1267963804517588</v>
+        <v>0.1387847392267244</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04972041210304776</v>
+        <v>0.03818861990259324</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1412296233.292597</v>
+        <v>1495170585.638576</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1685152641645818</v>
+        <v>0.1362614525078532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05440465528640988</v>
+        <v>0.04216616382293689</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2596077241.911802</v>
+        <v>2667149647.794246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1498642276378481</v>
+        <v>0.09087729118353542</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03498957778729912</v>
+        <v>0.02295772200000777</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1198017753.92503</v>
+        <v>892381258.6695281</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09294618155886014</v>
+        <v>0.1178088862499735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02379462930542836</v>
+        <v>0.0189784936468796</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1378616328.179283</v>
+        <v>1282913881.353582</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08314709233581627</v>
+        <v>0.121462294988652</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02989345821116459</v>
+        <v>0.02450148931103359</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2968649530.788986</v>
+        <v>2862170541.896624</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1023149561937564</v>
+        <v>0.1360532087019947</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01705721295938072</v>
+        <v>0.02142373917923331</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2833138222.17359</v>
+        <v>2594002968.389254</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1190934517003635</v>
+        <v>0.1431108761965438</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03284893331267914</v>
+        <v>0.04080841642799348</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4259983043.592628</v>
+        <v>5441450235.514474</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09351161946923847</v>
+        <v>0.1469799839292072</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04355776528734206</v>
+        <v>0.03493579652613111</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1871512154.428924</v>
+        <v>1665525795.580838</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08707748773482736</v>
+        <v>0.1175743162131123</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03501237910574468</v>
+        <v>0.02766372418478551</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>913199858.411276</v>
+        <v>1306903166.124791</v>
       </c>
       <c r="F31" t="n">
-        <v>0.101578944784946</v>
+        <v>0.09083033357218603</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03836518805857919</v>
+        <v>0.04517241924507309</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1338760792.579612</v>
+        <v>1536598333.042018</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08019658581151887</v>
+        <v>0.1022131303197428</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03826897503335582</v>
+        <v>0.03442437174766688</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2558541611.562758</v>
+        <v>2628769249.790271</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1532900954041513</v>
+        <v>0.1606039463721229</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06055803178807676</v>
+        <v>0.05065695842680218</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1200347076.58888</v>
+        <v>1066500758.842638</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1089582849249634</v>
+        <v>0.09858283891782031</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01712711827894392</v>
+        <v>0.02365082968765331</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1183338043.461569</v>
+        <v>1081491726.442906</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09783211759208972</v>
+        <v>0.1153004990968135</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03565249213869238</v>
+        <v>0.04070813168351584</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3108543383.235767</v>
+        <v>2234478759.47708</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1812269984507848</v>
+        <v>0.1393639804305525</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01816552484422421</v>
+        <v>0.02668379892535622</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2534243223.857556</v>
+        <v>2050318395.444997</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08883230189237964</v>
+        <v>0.07906601713905793</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03542029904238635</v>
+        <v>0.02709120798415248</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1387382351.341404</v>
+        <v>1968218036.667867</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08854642469350002</v>
+        <v>0.09122272504561371</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03898351261778868</v>
+        <v>0.0261019586436818</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1700554554.091435</v>
+        <v>2091137592.391181</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1176019107813039</v>
+        <v>0.1820141711557879</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03040186726642776</v>
+        <v>0.02809828887182287</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1745501182.751871</v>
+        <v>1457482822.140641</v>
       </c>
       <c r="F40" t="n">
-        <v>0.109401589625847</v>
+        <v>0.1583627121222813</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05847442784841422</v>
+        <v>0.04410455398005564</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2663416316.985512</v>
+        <v>2361649577.271713</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1020186162462643</v>
+        <v>0.1483893372988023</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03166425986834323</v>
+        <v>0.04308899269383966</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2814316125.469776</v>
+        <v>3833001670.958792</v>
       </c>
       <c r="F42" t="n">
-        <v>0.102030474520541</v>
+        <v>0.1010603290116093</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04563376067132118</v>
+        <v>0.02877256937843983</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2600920266.805794</v>
+        <v>1943214928.277864</v>
       </c>
       <c r="F43" t="n">
-        <v>0.134929300016591</v>
+        <v>0.1978703751333822</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02117351116400959</v>
+        <v>0.02312551304660515</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1924154736.520509</v>
+        <v>1917865661.252223</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08935631197921695</v>
+        <v>0.08485612814084906</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03433678209387273</v>
+        <v>0.02965130282256289</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2442812322.155899</v>
+        <v>1586985932.296821</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1855858329656299</v>
+        <v>0.1452281815659629</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04135002666340223</v>
+        <v>0.04211768119802775</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3473321871.622776</v>
+        <v>4100947996.15059</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1256495644409415</v>
+        <v>0.1357765994956503</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05171050948588918</v>
+        <v>0.06000095350607323</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4271164119.653763</v>
+        <v>3257532698.039216</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1866724645365355</v>
+        <v>0.1587851332286166</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05490628900989288</v>
+        <v>0.05870108556061748</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4039059239.484035</v>
+        <v>4368173099.861178</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0714053996573967</v>
+        <v>0.08068239988013158</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03021783241065373</v>
+        <v>0.03742047594642373</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1823913286.576336</v>
+        <v>1868077800.496798</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1340269127037114</v>
+        <v>0.1480712579451121</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04319386393493531</v>
+        <v>0.03777022055446266</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4051544742.707805</v>
+        <v>3311343952.794144</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1684499006846621</v>
+        <v>0.1335871264912519</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04155997531440121</v>
+        <v>0.04672311722215815</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>942514877.35523</v>
+        <v>1298906398.140594</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1828228999936381</v>
+        <v>0.1725357798944889</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05403172256224595</v>
+        <v>0.03521334566890597</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3891793569.758594</v>
+        <v>5235520651.457177</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1119076968985144</v>
+        <v>0.08624049818635671</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05780893847411544</v>
+        <v>0.05720972355097617</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2303047187.984977</v>
+        <v>2611890933.8358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1558576659060247</v>
+        <v>0.142548441251044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02472225097022611</v>
+        <v>0.0225342880491402</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4725725696.012262</v>
+        <v>3610104911.090546</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1615599294864087</v>
+        <v>0.1498918397926478</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05305901939190234</v>
+        <v>0.05056997022126253</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3363268221.354107</v>
+        <v>4539196645.679051</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1565033954439935</v>
+        <v>0.1968200565903201</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02427509902010372</v>
+        <v>0.03252857381829171</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1688660724.9464</v>
+        <v>1270569178.633577</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1382844487955521</v>
+        <v>0.1116944218196667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04370217055587035</v>
+        <v>0.0545185838618136</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3754978821.427071</v>
+        <v>3996668292.786645</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1187107652252668</v>
+        <v>0.1209568826033542</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0249539081244472</v>
+        <v>0.02606671808213346</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1484097137.028651</v>
+        <v>1162700442.110569</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1895082186795677</v>
+        <v>0.1881122927008716</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03302394001840665</v>
+        <v>0.03947276244444618</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4526585415.136397</v>
+        <v>5338555516.168059</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1224395302507019</v>
+        <v>0.1209020754091284</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03112225343951711</v>
+        <v>0.04302044246875234</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3615698494.666796</v>
+        <v>2703954689.044762</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2010402685068173</v>
+        <v>0.1708607577414324</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02322941076184836</v>
+        <v>0.03221412554250726</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2672321729.530672</v>
+        <v>2274222941.775174</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1096604736537311</v>
+        <v>0.1320645595404645</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03201380807298899</v>
+        <v>0.02054458411901506</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1478371217.836647</v>
+        <v>1793552071.068664</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1855847268385277</v>
+        <v>0.1798990336159094</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04994067236573142</v>
+        <v>0.03914291610094866</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3374916285.476026</v>
+        <v>3979693704.739522</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1057228546187655</v>
+        <v>0.09263451102159231</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03693145055968404</v>
+        <v>0.03480415347274109</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3568371188.961304</v>
+        <v>3809534343.854998</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1509386640405339</v>
+        <v>0.1252347317719233</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02862910485762548</v>
+        <v>0.02663905333374698</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3876650600.105859</v>
+        <v>3801869285.569646</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1640173592895307</v>
+        <v>0.1466654895856071</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02048774729034318</v>
+        <v>0.03177759140112373</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3609315776.187</v>
+        <v>5192571674.263726</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1463591126665378</v>
+        <v>0.1002048898843095</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0453626791624399</v>
+        <v>0.0432507077513055</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3319202805.78379</v>
+        <v>3068280088.953056</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0960815612449331</v>
+        <v>0.08739308874361035</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04115829937555929</v>
+        <v>0.03789182729197538</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5959366646.437097</v>
+        <v>5135084798.516068</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1459942902478271</v>
+        <v>0.1503431681358497</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0515237423814705</v>
+        <v>0.0401953682631893</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1716773584.705538</v>
+        <v>2324043165.32059</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1375284770202975</v>
+        <v>0.1176338484348161</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03962720326965082</v>
+        <v>0.05733304978314181</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2871021773.725721</v>
+        <v>2511333704.100609</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08211257761899859</v>
+        <v>0.1001269198673426</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0419843377896536</v>
+        <v>0.04902312281084602</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4361942705.295916</v>
+        <v>4643170072.17086</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1816921262565847</v>
+        <v>0.1657231318314886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02787150315318385</v>
+        <v>0.03142260088995842</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1548541819.416291</v>
+        <v>1694662051.374286</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09141161407618595</v>
+        <v>0.08014148786241126</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04776454228628434</v>
+        <v>0.05082839633698025</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3309404260.754755</v>
+        <v>3454932767.856646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1045439095566634</v>
+        <v>0.09869570680797551</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05265791933313877</v>
+        <v>0.04131475107395498</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3957915435.242961</v>
+        <v>3241025754.5767</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1247698345635155</v>
+        <v>0.141391297483747</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03031237096977444</v>
+        <v>0.02885159129683774</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2113263049.865894</v>
+        <v>2065207957.071802</v>
       </c>
       <c r="F75" t="n">
-        <v>0.152185246816333</v>
+        <v>0.1186639132579522</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03245619557934642</v>
+        <v>0.02980038262696806</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3859134192.975716</v>
+        <v>4749107675.508193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08863250606986363</v>
+        <v>0.09119596416330526</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02660140502824683</v>
+        <v>0.02788569720012749</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1426784184.224205</v>
+        <v>1681034944.034259</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1696987955521593</v>
+        <v>0.1230268407245908</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02646217127446885</v>
+        <v>0.02480212460714237</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3728721550.986757</v>
+        <v>2968422548.362443</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1201032187016664</v>
+        <v>0.09934895575594196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05645453084940522</v>
+        <v>0.04844585458005282</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1496241755.70758</v>
+        <v>1667201518.60165</v>
       </c>
       <c r="F79" t="n">
-        <v>0.146582276223433</v>
+        <v>0.1279627115354372</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02451874243973001</v>
+        <v>0.02533613118489642</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5503490689.835539</v>
+        <v>3684533532.739112</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07713361039553594</v>
+        <v>0.0784894547410513</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02703636671972956</v>
+        <v>0.03785913632311604</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4103790386.914242</v>
+        <v>4258793082.120925</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1002942325306914</v>
+        <v>0.1147690442991465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03178427453911509</v>
+        <v>0.02714966320142386</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3917778951.944762</v>
+        <v>5465747294.757576</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1455719575563683</v>
+        <v>0.1703375702463225</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01893973517856509</v>
+        <v>0.02453733867427138</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1833336612.666015</v>
+        <v>1624618611.078824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1487050681885177</v>
+        <v>0.1514092277056247</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03139561252365624</v>
+        <v>0.0375441553640023</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1573189472.292126</v>
+        <v>1654715282.943293</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07704287153345725</v>
+        <v>0.1081894074837185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03537981249462051</v>
+        <v>0.04990688256982494</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2991370658.299475</v>
+        <v>2710208023.026036</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1154007445355785</v>
+        <v>0.1800461081415989</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04214175430181603</v>
+        <v>0.03787097307100078</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2633444239.450644</v>
+        <v>2792276142.977081</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1676347782925352</v>
+        <v>0.1618415944005628</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02527150587314683</v>
+        <v>0.02038619777924908</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>996682591.1874241</v>
+        <v>1382723444.00499</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1753745697066444</v>
+        <v>0.1519988975170722</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04351779343379872</v>
+        <v>0.03616460665333186</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3555710440.878969</v>
+        <v>2977681809.098408</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1384361611602764</v>
+        <v>0.1204568205082254</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03665706497139355</v>
+        <v>0.02951840424530359</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3201535224.564442</v>
+        <v>2484872519.608902</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1319998102491213</v>
+        <v>0.1052391173767344</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02550980228130464</v>
+        <v>0.03658760726119054</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1501602940.208943</v>
+        <v>1334997817.355779</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1106001392165699</v>
+        <v>0.08374719888324883</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03427349618197745</v>
+        <v>0.05391160543267472</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1267307570.803944</v>
+        <v>1886295008.181101</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1409441411660869</v>
+        <v>0.1862896918332011</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04343416087991905</v>
+        <v>0.04146114949081345</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2354201993.821811</v>
+        <v>2445293096.364497</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08553641614293502</v>
+        <v>0.0983355894499125</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02876846414128648</v>
+        <v>0.03234765495597138</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3447461765.373206</v>
+        <v>3196932348.872467</v>
       </c>
       <c r="F93" t="n">
-        <v>0.136246350083516</v>
+        <v>0.1037840891633916</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03695258963193617</v>
+        <v>0.03789131248869254</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1888284254.668528</v>
+        <v>2005327113.042929</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1507159492744862</v>
+        <v>0.1080576126206205</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0401002478952298</v>
+        <v>0.02876690408331213</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2950753422.391111</v>
+        <v>2746780351.95456</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1361794296038997</v>
+        <v>0.1083208931722152</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03512295547420172</v>
+        <v>0.04525385046740467</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2045330052.412589</v>
+        <v>2075277059.000099</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09141667297221234</v>
+        <v>0.1279152781194231</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03781395397362505</v>
+        <v>0.04233107266719959</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3305923743.43013</v>
+        <v>3544277888.218803</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1760501269909207</v>
+        <v>0.1493970143782669</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01769312368170715</v>
+        <v>0.0231033782982021</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2761309086.034592</v>
+        <v>3690631761.09657</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09294463495058519</v>
+        <v>0.0930689138195019</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03286117875925088</v>
+        <v>0.02169306555505341</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2074981152.247071</v>
+        <v>2843488229.968733</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1147366732229924</v>
+        <v>0.121031385562332</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02639165378482538</v>
+        <v>0.02277103831751504</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3641852985.598433</v>
+        <v>4684424049.866882</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1715997964201416</v>
+        <v>0.1416818876079836</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02352969494172268</v>
+        <v>0.02142821049436331</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3178930054.473299</v>
+        <v>2630494515.292478</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1940710524421912</v>
+        <v>0.1472791248179772</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03714501231719466</v>
+        <v>0.05101383934765791</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_377.xlsx
+++ b/output/fit_clients/fit_round_377.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1759931950.102239</v>
+        <v>1747732389.438088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09101873305113915</v>
+        <v>0.1064608372547286</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03601970708038404</v>
+        <v>0.03245611842196933</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2261478546.252482</v>
+        <v>1962511046.118383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1158036993399506</v>
+        <v>0.1568933820556541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04546567657621399</v>
+        <v>0.03517406424932046</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4461008358.706422</v>
+        <v>4117178886.57025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1314411982635621</v>
+        <v>0.1325070564943418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03112815886399872</v>
+        <v>0.03435274651292337</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>193</v>
+      </c>
+      <c r="J4" t="n">
+        <v>377</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3026601906.462094</v>
+        <v>4216377156.721225</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08325344626089541</v>
+        <v>0.07759041897710164</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03230038083604203</v>
+        <v>0.03538285185105523</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>377</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2030903264.712255</v>
+        <v>2477724286.948277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1395906984922044</v>
+        <v>0.1450082928729902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03719993614256744</v>
+        <v>0.04695781852832643</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2225650910.189156</v>
+        <v>2534918953.099792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06366163120838195</v>
+        <v>0.07430737339812467</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04286468040190623</v>
+        <v>0.04475537114834806</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2886803122.199675</v>
+        <v>3301783610.880442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.209476684741609</v>
+        <v>0.1726862313202186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03264531808581082</v>
+        <v>0.03128896728192331</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>376</v>
+      </c>
+      <c r="K8" t="n">
+        <v>59.27091956705713</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1981914211.893561</v>
+        <v>1961532845.332373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1251914300824422</v>
+        <v>0.1882068441035926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03657206233629891</v>
+        <v>0.03008743642925241</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4386953224.687017</v>
+        <v>3854585747.808174</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2112545278992275</v>
+        <v>0.1390630393119891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03900155157516377</v>
+        <v>0.03634017249812788</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>310</v>
+      </c>
+      <c r="J10" t="n">
+        <v>377</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3269553288.352816</v>
+        <v>3981097565.408602</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259960396472964</v>
+        <v>0.1305691930832988</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04537033545096756</v>
+        <v>0.04725475720176506</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>158</v>
+      </c>
+      <c r="J11" t="n">
+        <v>377</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63.22385901449979</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2775477747.551859</v>
+        <v>3082637588.857563</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1972360346397213</v>
+        <v>0.1713116775087722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04867326068847939</v>
+        <v>0.05342579044064211</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3928808295.293252</v>
+        <v>4132602940.212277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09967966752781429</v>
+        <v>0.07676445450909154</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02168444407157073</v>
+        <v>0.02252687744572214</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>196</v>
+      </c>
+      <c r="J13" t="n">
+        <v>376</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56.17880825073323</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3302242154.12749</v>
+        <v>2385351329.755661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1316293489969612</v>
+        <v>0.1495332425151507</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04207702684643505</v>
+        <v>0.03943373605609315</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1351520971.914219</v>
+        <v>1685757311.670025</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09432832176544335</v>
+        <v>0.08133971230659631</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04120210926962799</v>
+        <v>0.03160858058908152</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2699245935.597616</v>
+        <v>2386656365.478083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1124821935852067</v>
+        <v>0.09963291005047845</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03905527388193326</v>
+        <v>0.04124152176236465</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5178404018.053908</v>
+        <v>5269041628.921018</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1191755133943428</v>
+        <v>0.1271192549218306</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03411872898129284</v>
+        <v>0.03539436132376304</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>178</v>
+      </c>
+      <c r="J17" t="n">
+        <v>377</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2888590373.640826</v>
+        <v>2468544949.172039</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1411446581090522</v>
+        <v>0.1164164562642564</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02551351612036806</v>
+        <v>0.02771402296530119</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>372</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1337483965.796605</v>
+        <v>848568181.0786668</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1435829141756724</v>
+        <v>0.1187815604829769</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02221619401080571</v>
+        <v>0.020891672235774</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1867373956.208528</v>
+        <v>2029003357.021699</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1594474992886912</v>
+        <v>0.1461481956561334</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01971145105399057</v>
+        <v>0.02389465668607199</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2075109954.645994</v>
+        <v>2268636773.173627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09360797940344687</v>
+        <v>0.09409055150104211</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04432465044643625</v>
+        <v>0.04175462336936201</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3002124036.647894</v>
+        <v>4019572935.863851</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1387847392267244</v>
+        <v>0.1152850015741884</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03818861990259324</v>
+        <v>0.0351457246317047</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>377</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1495170585.638576</v>
+        <v>1241069019.718209</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1362614525078532</v>
+        <v>0.1487520447253209</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04216616382293689</v>
+        <v>0.05032021961736942</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2667149647.794246</v>
+        <v>3953295807.869643</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09087729118353542</v>
+        <v>0.1396026893299516</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02295772200000777</v>
+        <v>0.03567265796053003</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>116</v>
+      </c>
+      <c r="J24" t="n">
+        <v>377</v>
+      </c>
+      <c r="K24" t="n">
+        <v>61.10630835593349</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>892381258.6695281</v>
+        <v>1131312908.072963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1178088862499735</v>
+        <v>0.07992343377932314</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0189784936468796</v>
+        <v>0.02835417663073465</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1282913881.353582</v>
+        <v>1237234851.384836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121462294988652</v>
+        <v>0.1144977655920065</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02450148931103359</v>
+        <v>0.02431409984108258</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2862170541.896624</v>
+        <v>2907407774.773353</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1360532087019947</v>
+        <v>0.1507145974442157</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02142373917923331</v>
+        <v>0.02541938624198953</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>157</v>
+      </c>
+      <c r="J27" t="n">
+        <v>376</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.540103400078</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1421,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2594002968.389254</v>
+        <v>3670493798.59042</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1431108761965438</v>
+        <v>0.1214979054251374</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04080841642799348</v>
+        <v>0.04886615658042436</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="n">
+        <v>73.37650335247615</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5441450235.514474</v>
+        <v>4363116379.723439</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1469799839292072</v>
+        <v>0.1340487527535293</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03493579652613111</v>
+        <v>0.02916876254135656</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>327</v>
+      </c>
+      <c r="J29" t="n">
+        <v>376</v>
+      </c>
+      <c r="K29" t="n">
+        <v>55.14053366143099</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1665525795.580838</v>
+        <v>1783584406.029581</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1175743162131123</v>
+        <v>0.112012674458742</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02766372418478551</v>
+        <v>0.03905019887949658</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1306903166.124791</v>
+        <v>1028179001.549558</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09083033357218603</v>
+        <v>0.08468992310727905</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04517241924507309</v>
+        <v>0.04940596410494785</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1536598333.042018</v>
+        <v>1183373571.424248</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1022131303197428</v>
+        <v>0.09045343942723283</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03442437174766688</v>
+        <v>0.02373148682104763</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2628769249.790271</v>
+        <v>2147259870.497352</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1606039463721229</v>
+        <v>0.1372210299368025</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05065695842680218</v>
+        <v>0.04106063615200868</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1066500758.842638</v>
+        <v>1406846807.332569</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09858283891782031</v>
+        <v>0.09386198548008345</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02365082968765331</v>
+        <v>0.02601295385581606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1081491726.442906</v>
+        <v>918865881.0560696</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153004990968135</v>
+        <v>0.09235512873406948</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04070813168351584</v>
+        <v>0.0283791482165029</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2234478759.47708</v>
+        <v>2390696260.568053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1393639804305525</v>
+        <v>0.109274565928001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02668379892535622</v>
+        <v>0.02724510549335882</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2050318395.444997</v>
+        <v>2107032353.787516</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07906601713905793</v>
+        <v>0.09775269804622151</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02709120798415248</v>
+        <v>0.02591542261519263</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1968218036.667867</v>
+        <v>2091540599.470557</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09122272504561371</v>
+        <v>0.1200916153938568</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0261019586436818</v>
+        <v>0.03061091976558208</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2091137592.391181</v>
+        <v>2002264669.29675</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1820141711557879</v>
+        <v>0.1364865223319521</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02809828887182287</v>
+        <v>0.02998323946450371</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1457482822.140641</v>
+        <v>1705902233.094913</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1583627121222813</v>
+        <v>0.1347225709628377</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04410455398005564</v>
+        <v>0.04245900448969256</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2361649577.271713</v>
+        <v>1779624730.218489</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1483893372988023</v>
+        <v>0.1140986022338863</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04308899269383966</v>
+        <v>0.03597570352031978</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3833001670.958792</v>
+        <v>3171830375.733911</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1010603290116093</v>
+        <v>0.1059710005105853</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02877256937843983</v>
+        <v>0.03315625214665976</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>166</v>
+      </c>
+      <c r="J42" t="n">
+        <v>375</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1943214928.277864</v>
+        <v>2244701901.744224</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1978703751333822</v>
+        <v>0.1663218324010802</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02312551304660515</v>
+        <v>0.01852471596039836</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1917865661.252223</v>
+        <v>1902029664.812123</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08485612814084906</v>
+        <v>0.09631330481777194</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02965130282256289</v>
+        <v>0.02739267486671538</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1586985932.296821</v>
+        <v>1704770497.405666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1452281815659629</v>
+        <v>0.1272147916374565</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04211768119802775</v>
+        <v>0.04697785181213992</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4100947996.15059</v>
+        <v>5156048116.611211</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1357765994956503</v>
+        <v>0.1294973893866848</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06000095350607323</v>
+        <v>0.05528031278323058</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>225</v>
+      </c>
+      <c r="J46" t="n">
+        <v>377</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3257532698.039216</v>
+        <v>4259383117.801961</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1587851332286166</v>
+        <v>0.1260155176783388</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05870108556061748</v>
+        <v>0.04500602424583271</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>168</v>
+      </c>
+      <c r="J47" t="n">
+        <v>377</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4368173099.861178</v>
+        <v>3284993109.482039</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08068239988013158</v>
+        <v>0.1004986175234565</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03742047594642373</v>
+        <v>0.03892047163507697</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>195</v>
+      </c>
+      <c r="J48" t="n">
+        <v>375</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1868077800.496798</v>
+        <v>1841146617.783222</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1480712579451121</v>
+        <v>0.1369224665876876</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03777022055446266</v>
+        <v>0.0405021158448443</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3311343952.794144</v>
+        <v>3610278529.213188</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1335871264912519</v>
+        <v>0.1500426318513787</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04672311722215815</v>
+        <v>0.04814494973840021</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>127</v>
+      </c>
+      <c r="J50" t="n">
+        <v>377</v>
+      </c>
+      <c r="K50" t="n">
+        <v>64.00290657667499</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298906398.140594</v>
+        <v>1420822866.628847</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1725357798944889</v>
+        <v>0.1238400361261941</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03521334566890597</v>
+        <v>0.04605369941734804</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5235520651.457177</v>
+        <v>3729308899.339839</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08624049818635671</v>
+        <v>0.09207917653654972</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05720972355097617</v>
+        <v>0.05452699682986738</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>221</v>
+      </c>
+      <c r="J52" t="n">
+        <v>377</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2611890933.8358</v>
+        <v>2393840547.694952</v>
       </c>
       <c r="F53" t="n">
-        <v>0.142548441251044</v>
+        <v>0.1928217541688298</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0225342880491402</v>
+        <v>0.02488539923440902</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3610104911.090546</v>
+        <v>4654720166.295049</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1498918397926478</v>
+        <v>0.1265614987715753</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05056997022126253</v>
+        <v>0.04498883525301829</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>201</v>
+      </c>
+      <c r="J54" t="n">
+        <v>376</v>
+      </c>
+      <c r="K54" t="n">
+        <v>55.09574944757099</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4539196645.679051</v>
+        <v>3140144339.555494</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1968200565903201</v>
+        <v>0.2138675011055204</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03252857381829171</v>
+        <v>0.03213890667687203</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>181</v>
+      </c>
+      <c r="J55" t="n">
+        <v>376</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44.6575140506709</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1270569178.633577</v>
+        <v>1374471756.643094</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1116944218196667</v>
+        <v>0.1131978315924017</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0545185838618136</v>
+        <v>0.04487111145795789</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3996668292.786645</v>
+        <v>3534798808.64274</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1209568826033542</v>
+        <v>0.1613587979628545</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02606671808213346</v>
+        <v>0.01735452963920505</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>159</v>
+      </c>
+      <c r="J57" t="n">
+        <v>376</v>
+      </c>
+      <c r="K57" t="n">
+        <v>54.61765762045413</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1162700442.110569</v>
+        <v>1693722794.066494</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1881122927008716</v>
+        <v>0.1804998829261259</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03947276244444618</v>
+        <v>0.02881317789424137</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5338555516.168059</v>
+        <v>4168501333.697479</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1209020754091284</v>
+        <v>0.1174491535976369</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04302044246875234</v>
+        <v>0.04753168713054107</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>183</v>
+      </c>
+      <c r="J59" t="n">
+        <v>377</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2553,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2703954689.044762</v>
+        <v>3284595582.243839</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1708607577414324</v>
+        <v>0.1925889386535133</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03221412554250726</v>
+        <v>0.03079123286974685</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>69</v>
+      </c>
+      <c r="J60" t="n">
+        <v>377</v>
+      </c>
+      <c r="K60" t="n">
+        <v>65.23500688808038</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2274222941.775174</v>
+        <v>2504808524.90506</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1320645595404645</v>
+        <v>0.1764689679073509</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02054458411901506</v>
+        <v>0.03051746664927481</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1793552071.068664</v>
+        <v>1535528143.199621</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1798990336159094</v>
+        <v>0.1227140053676126</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03914291610094866</v>
+        <v>0.04875638647734456</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3979693704.739522</v>
+        <v>3713263016.0964</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09263451102159231</v>
+        <v>0.09324638895488627</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03480415347274109</v>
+        <v>0.02866947519901641</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>185</v>
+      </c>
+      <c r="J63" t="n">
+        <v>377</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3809534343.854998</v>
+        <v>4879322763.40696</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1252347317719233</v>
+        <v>0.1496690197736562</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02663905333374698</v>
+        <v>0.0279252446757103</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>187</v>
+      </c>
+      <c r="J64" t="n">
+        <v>377</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3801869285.569646</v>
+        <v>4468591428.72943</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1466654895856071</v>
+        <v>0.1181112447253502</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03177759140112373</v>
+        <v>0.0319103083690068</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>284</v>
+      </c>
+      <c r="J65" t="n">
+        <v>376</v>
+      </c>
+      <c r="K65" t="n">
+        <v>54.99687018099341</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5192571674.263726</v>
+        <v>3841805281.830535</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1002048898843095</v>
+        <v>0.1512316358120892</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0432507077513055</v>
+        <v>0.04696217036587408</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>186</v>
+      </c>
+      <c r="J66" t="n">
+        <v>377</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3068280088.953056</v>
+        <v>2842611284.973289</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08739308874361035</v>
+        <v>0.08701860691252979</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03789182729197538</v>
+        <v>0.04591589670892818</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5135084798.516068</v>
+        <v>3719564610.499331</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1503431681358497</v>
+        <v>0.1490092529833489</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0401953682631893</v>
+        <v>0.05091579988046988</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>204</v>
+      </c>
+      <c r="J68" t="n">
+        <v>377</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2324043165.32059</v>
+        <v>2355849081.310212</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1176338484348161</v>
+        <v>0.1229833316257149</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05733304978314181</v>
+        <v>0.04023265259049796</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2511333704.100609</v>
+        <v>3297983871.065299</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1001269198673426</v>
+        <v>0.07529237753934172</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04902312281084602</v>
+        <v>0.04371999356080561</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4643170072.17086</v>
+        <v>4297242135.577205</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1657231318314886</v>
+        <v>0.1454935339227303</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03142260088995842</v>
+        <v>0.02744314722988716</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>270</v>
+      </c>
+      <c r="J71" t="n">
+        <v>376</v>
+      </c>
+      <c r="K71" t="n">
+        <v>54.30062464384166</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1694662051.374286</v>
+        <v>2148491120.114034</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08014148786241126</v>
+        <v>0.07934784986660941</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05082839633698025</v>
+        <v>0.0338181878316347</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3454932767.856646</v>
+        <v>2740086408.965034</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09869570680797551</v>
+        <v>0.09900791428100107</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04131475107395498</v>
+        <v>0.04446578411279579</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26</v>
+      </c>
+      <c r="J73" t="n">
+        <v>376</v>
+      </c>
+      <c r="K73" t="n">
+        <v>56.2675970720609</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3241025754.5767</v>
+        <v>2967216968.239572</v>
       </c>
       <c r="F74" t="n">
-        <v>0.141391297483747</v>
+        <v>0.1491568411102774</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02885159129683774</v>
+        <v>0.03541146397378916</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>107</v>
+      </c>
+      <c r="J74" t="n">
+        <v>373</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2065207957.071802</v>
+        <v>1651848395.814308</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1186639132579522</v>
+        <v>0.1362818981904668</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02980038262696806</v>
+        <v>0.02583680894099078</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4749107675.508193</v>
+        <v>3360715495.627913</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09119596416330526</v>
+        <v>0.1003691108062142</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02788569720012749</v>
+        <v>0.02736162468666556</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>178</v>
+      </c>
+      <c r="J76" t="n">
+        <v>375</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1681034944.034259</v>
+        <v>1644980491.577154</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1230268407245908</v>
+        <v>0.1609175959950149</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02480212460714237</v>
+        <v>0.02679507606561381</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2968422548.362443</v>
+        <v>4531179290.271618</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09934895575594196</v>
+        <v>0.1135229375066961</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04844585458005282</v>
+        <v>0.03757706480962079</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>188</v>
+      </c>
+      <c r="J78" t="n">
+        <v>377</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1667201518.60165</v>
+        <v>1589662030.295056</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1279627115354372</v>
+        <v>0.1111085268052298</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02533613118489642</v>
+        <v>0.03140519066977327</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3684533532.739112</v>
+        <v>4482965686.063592</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0784894547410513</v>
+        <v>0.06816202267078933</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03785913632311604</v>
+        <v>0.03709880910016029</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>184</v>
+      </c>
+      <c r="J80" t="n">
+        <v>376</v>
+      </c>
+      <c r="K80" t="n">
+        <v>46.15540845128558</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4258793082.120925</v>
+        <v>3596858752.64606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1147690442991465</v>
+        <v>0.09876271330437313</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02714966320142386</v>
+        <v>0.02632190909828765</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>175</v>
+      </c>
+      <c r="J81" t="n">
+        <v>376</v>
+      </c>
+      <c r="K81" t="n">
+        <v>51.42465089689227</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5465747294.757576</v>
+        <v>4458437358.268816</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1703375702463225</v>
+        <v>0.2162986464356701</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02453733867427138</v>
+        <v>0.02180353113436145</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>261</v>
+      </c>
+      <c r="J82" t="n">
+        <v>377</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1624618611.078824</v>
+        <v>1837474022.30372</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1514092277056247</v>
+        <v>0.1195667428188876</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0375441553640023</v>
+        <v>0.03331559952544993</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1654715282.943293</v>
+        <v>2450232768.657845</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1081894074837185</v>
+        <v>0.1072897417137325</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04990688256982494</v>
+        <v>0.03569738327820725</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2710208023.026036</v>
+        <v>2542208097.934489</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1800461081415989</v>
+        <v>0.1501065841328527</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03787097307100078</v>
+        <v>0.04907312005994593</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2792276142.977081</v>
+        <v>2472477976.573126</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1618415944005628</v>
+        <v>0.1173119054768073</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02038619777924908</v>
+        <v>0.02266657982504282</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1382723444.00499</v>
+        <v>1485673219.745784</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1519988975170722</v>
+        <v>0.1443294254563844</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03616460665333186</v>
+        <v>0.03521378195802157</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2977681809.098408</v>
+        <v>3686619141.010694</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1204568205082254</v>
+        <v>0.1529270092234941</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02951840424530359</v>
+        <v>0.03094142785075247</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484872519.608902</v>
+        <v>3037571118.028449</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1052391173767344</v>
+        <v>0.137162210305207</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03658760726119054</v>
+        <v>0.03159352109718871</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1334997817.355779</v>
+        <v>2117663921.726551</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08374719888324883</v>
+        <v>0.1186485546498343</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05391160543267472</v>
+        <v>0.03713866855314337</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1886295008.181101</v>
+        <v>1991135847.730778</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862896918332011</v>
+        <v>0.1491004500274938</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04146114949081345</v>
+        <v>0.05918125676906394</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2445293096.364497</v>
+        <v>2204345742.764065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0983355894499125</v>
+        <v>0.09829346185374799</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03234765495597138</v>
+        <v>0.03191265783248978</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3196932348.872467</v>
+        <v>3181444916.383215</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1037840891633916</v>
+        <v>0.08828505938680931</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03789131248869254</v>
+        <v>0.04058765962337541</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>178</v>
+      </c>
+      <c r="J93" t="n">
+        <v>376</v>
+      </c>
+      <c r="K93" t="n">
+        <v>41.89403820584997</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2005327113.042929</v>
+        <v>1733828761.245212</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1080576126206205</v>
+        <v>0.1554756424291429</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02876690408331213</v>
+        <v>0.03835900088640185</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2746780351.95456</v>
+        <v>2203909770.629725</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1083208931722152</v>
+        <v>0.1361941703575131</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04525385046740467</v>
+        <v>0.03262552179455262</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2075277059.000099</v>
+        <v>1683527592.645871</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1279152781194231</v>
+        <v>0.1391204538427979</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04233107266719959</v>
+        <v>0.0461134561580983</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3544277888.218803</v>
+        <v>4528823215.138551</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1493970143782669</v>
+        <v>0.1157114433036221</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0231033782982021</v>
+        <v>0.02117053129774799</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>195</v>
+      </c>
+      <c r="J97" t="n">
+        <v>376</v>
+      </c>
+      <c r="K97" t="n">
+        <v>54.03726894366733</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3690631761.09657</v>
+        <v>2716189660.743101</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0930689138195019</v>
+        <v>0.09915995421051033</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02169306555505341</v>
+        <v>0.03012791827922015</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2843488229.968733</v>
+        <v>2389104701.365228</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121031385562332</v>
+        <v>0.09309854194011813</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02277103831751504</v>
+        <v>0.03279450199528211</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4684424049.866882</v>
+        <v>3474550278.197568</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1416818876079836</v>
+        <v>0.1745042173770658</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02142821049436331</v>
+        <v>0.01906074391202999</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>173</v>
+      </c>
+      <c r="J100" t="n">
+        <v>376</v>
+      </c>
+      <c r="K100" t="n">
+        <v>51.07979307002007</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2630494515.292478</v>
+        <v>3237942475.142612</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1472791248179772</v>
+        <v>0.222314223985225</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05101383934765791</v>
+        <v>0.04810383973422715</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
